--- a/ toolshare --username trh8614@g.rit.edu/R2 Documents/TestPlanTracker.xlsx
+++ b/ toolshare --username trh8614@g.rit.edu/R2 Documents/TestPlanTracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="525" windowWidth="22695" windowHeight="11445"/>
+    <workbookView xWindow="630" yWindow="525" windowWidth="20730" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="123">
   <si>
     <t>Test Planner and Tracker</t>
   </si>
@@ -71,18 +71,12 @@
     <t>successful</t>
   </si>
   <si>
-    <t>user wants to view/edit profile information</t>
-  </si>
-  <si>
     <t>user on homepage</t>
   </si>
   <si>
     <t>Sign in first or if signed in click the profile link.</t>
   </si>
   <si>
-    <t>profile information displayed on the profile page with option to edit</t>
-  </si>
-  <si>
     <t>First name and last name are missing, Username and email are visible, editing not available at this time</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
   </si>
   <si>
     <t>user wants to rent a tool</t>
-  </si>
-  <si>
-    <t>Sign in, go to Tools, Browse, click on Item, fill in request form, owner agrees to transaction</t>
   </si>
   <si>
     <t>System accounts for checked out item.</t>
@@ -394,16 +385,31 @@
 Mediterranean Avenue</t>
   </si>
   <si>
-    <t>Can view information but cannot edit yet.</t>
-  </si>
-  <si>
-    <t>can borrow a tool but without request from owner</t>
-  </si>
-  <si>
     <t>user and owner- Sign in, go to Profile, Click on item in inventory and click return item</t>
   </si>
   <si>
     <t>Sign in, go to Tools, Click Add, and enter information, then click submit.</t>
+  </si>
+  <si>
+    <t>user wants to view profile information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profile information displayed on the profile page </t>
+  </si>
+  <si>
+    <t>edit profile information</t>
+  </si>
+  <si>
+    <t>user on home page signed into account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click the profile button, click edit profile, enter ifnormation, click submit, </t>
+  </si>
+  <si>
+    <t>information is edited and new information is view on profile page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign in, go to Tools, Browse, click on Item, </t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1339,17 +1345,14 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1654,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1671,18 +1674,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
       <c r="D1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="48"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
@@ -1741,23 +1744,23 @@
         <f t="shared" ref="A4:A32" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="D4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>117</v>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H4" s="20"/>
     </row>
@@ -1767,47 +1770,47 @@
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="E5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="F5" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="37">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>118</v>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H6" s="20"/>
     </row>
@@ -1817,19 +1820,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>119</v>
+        <v>28</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>114</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>15</v>
@@ -1842,16 +1845,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>120</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>115</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
@@ -1867,22 +1870,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H9" s="20"/>
     </row>
@@ -1892,16 +1895,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>15</v>
@@ -1917,19 +1920,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>15</v>
@@ -1942,22 +1945,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>48</v>
-      </c>
       <c r="F12" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H12" s="20"/>
     </row>
@@ -1967,22 +1970,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>52</v>
-      </c>
       <c r="F13" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H13" s="20"/>
     </row>
@@ -1992,22 +1995,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H14" s="20"/>
     </row>
@@ -2017,22 +2020,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>59</v>
-      </c>
       <c r="F15" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H15" s="20"/>
     </row>
@@ -2042,22 +2045,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H16" s="20"/>
     </row>
@@ -2067,36 +2070,48 @@
         <v>15</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="37">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="B18" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -2305,7 +2320,7 @@
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -2323,7 +2338,7 @@
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -2333,7 +2348,7 @@
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -2343,7 +2358,7 @@
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -2353,7 +2368,7 @@
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -2363,7 +2378,7 @@
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2373,7 +2388,7 @@
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -2383,7 +2398,7 @@
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -2393,7 +2408,7 @@
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -2403,7 +2418,7 @@
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -2413,7 +2428,7 @@
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -2423,7 +2438,7 @@
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -2433,7 +2448,7 @@
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -2443,7 +2458,7 @@
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -2453,7 +2468,7 @@
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -2463,7 +2478,7 @@
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -2528,7 +2543,7 @@
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -2541,7 +2556,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="46" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -2553,7 +2568,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -2564,7 +2579,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -2586,25 +2601,25 @@
     </row>
     <row r="7" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>89</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H7" s="15"/>
     </row>
@@ -2613,16 +2628,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="38" t="s">
         <v>92</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>95</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="24"/>
@@ -2633,16 +2648,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D9" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="38" t="s">
         <v>94</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>97</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="24"/>
@@ -2653,16 +2668,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="45" t="s">
         <v>98</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>101</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
@@ -2673,10 +2688,10 @@
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
@@ -2687,16 +2702,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="45" t="s">
         <v>104</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>107</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="32"/>
@@ -2707,10 +2722,10 @@
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="30"/>
@@ -2721,16 +2736,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="32"/>
@@ -2741,13 +2756,13 @@
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G15" s="30"/>
       <c r="H15" s="17"/>
@@ -2757,16 +2772,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="31"/>
@@ -2777,10 +2792,10 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="22"/>
